--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Desktop\Slanted Structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CADB54-4FF9-4775-B478-1119C2E13FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4474FCB-BF55-4BEF-BD2A-D56567009115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="855" windowWidth="15810" windowHeight="11835" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="101110_default" sheetId="14" r:id="rId4"/>
     <sheet name="102010_choice" sheetId="17" r:id="rId5"/>
     <sheet name="102010" sheetId="16" r:id="rId6"/>
-    <sheet name="choice1" sheetId="18" r:id="rId7"/>
-    <sheet name="102010_old1" sheetId="22" r:id="rId8"/>
-    <sheet name="choice2" sheetId="19" r:id="rId9"/>
-    <sheet name="102010_old2" sheetId="23" r:id="rId10"/>
-    <sheet name="choice3" sheetId="21" r:id="rId11"/>
-    <sheet name="102010_old3" sheetId="24" r:id="rId12"/>
-    <sheet name="102010_cap" sheetId="20" r:id="rId13"/>
-    <sheet name="103010" sheetId="25" r:id="rId14"/>
-    <sheet name="104010" sheetId="27" r:id="rId15"/>
+    <sheet name="102010_old" sheetId="28" r:id="rId7"/>
+    <sheet name="choice1" sheetId="18" r:id="rId8"/>
+    <sheet name="102010_old1" sheetId="22" r:id="rId9"/>
+    <sheet name="choice2" sheetId="19" r:id="rId10"/>
+    <sheet name="102010_old2" sheetId="23" r:id="rId11"/>
+    <sheet name="choice3" sheetId="21" r:id="rId12"/>
+    <sheet name="102010_old3" sheetId="24" r:id="rId13"/>
+    <sheet name="102010_cap" sheetId="20" r:id="rId14"/>
+    <sheet name="103010" sheetId="25" r:id="rId15"/>
+    <sheet name="104010" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="129">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,10 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoryMap/ep1/102010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoryMap/ep1/102010_old1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,6 +498,14 @@
   </si>
   <si>
     <t>choice3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102010_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryMap/ep1/102010_old</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1027,6 +1032,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3586121-688B-4363-B135-17C02A15AFAF}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1AEA6-CA32-4FB8-93D2-80C59E6BAF42}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1041,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1094,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1105,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -1129,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB3D-D3BE-4073-9DC2-BFF58C083A85}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1145,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -1222,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1236,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1259,7 +1397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD92C6D-F6F8-400A-B1E9-CB8344E588E3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1274,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1324,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -1338,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -1352,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -1366,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1377,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -1391,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1405,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1417,7 +1555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -1434,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1487,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1495,13 +1633,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -1515,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1523,13 +1661,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -1537,13 +1675,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -1551,13 +1689,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
@@ -1571,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1585,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1613,7 +1751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EA8BF-B079-49A4-905D-516AA5402B91}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1628,7 +1766,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1675,13 +1813,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>65</v>
@@ -1689,13 +1827,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -1709,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1717,13 +1855,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -1731,13 +1869,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -1751,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1759,13 +1897,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -1773,13 +1911,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
@@ -1793,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -1801,13 +1939,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
@@ -1815,13 +1953,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -1835,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1847,7 +1985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1862,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1915,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1929,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1940,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
         <v>65</v>
@@ -2480,13 +2618,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2565,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2584,7 +2722,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2601,7 +2739,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2618,7 +2756,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2655,7 +2793,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2755,46 +2893,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="1"/>
@@ -2825,6 +2930,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1CAB32-3C6C-4484-8191-584CCB7324A0}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="47.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -2899,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2913,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2936,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56187D0C-39CF-4294-9323-5B8398006A1F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2951,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3004,18 +3241,18 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="33">
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>65</v>
@@ -3029,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -3043,139 +3280,6 @@
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3586121-688B-4363-B135-17C02A15AFAF}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4474FCB-BF55-4BEF-BD2A-D56567009115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798209B5-94C8-49DB-90A3-DD8973AFB937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="127">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,18 +155,6 @@
   </si>
   <si>
     <t>변화 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryMap/ep1/Choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryMap/ep1/Choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryMap/ep1/Choice3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원래꺼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>끝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,14 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoryMap/ep1/102010_old1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryMap/ep1/102010_cap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102010_cap</t>
   </si>
   <si>
@@ -338,14 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoryMap/ep1/102010_old2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryMap/ep1/102010_old3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102010_old1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -505,7 +473,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoryMap/ep1/102010_old</t>
+    <t>dialogue_ep1/102010_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/choice3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/102010_old1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/102010_old2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/102010_old3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -929,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -954,27 +946,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -982,13 +974,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1033,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3586121-688B-4363-B135-17C02A15AFAF}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1047,13 +1039,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1118,13 +1110,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1132,29 +1124,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -1179,7 +1154,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1201,7 +1176,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1226,13 +1201,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1243,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1269,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB3D-D3BE-4073-9DC2-BFF58C083A85}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1283,13 +1258,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1354,13 +1329,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1368,26 +1343,12 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -1412,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1434,7 +1395,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1462,49 +1423,49 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1515,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1537,13 +1498,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1572,7 +1533,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1594,7 +1555,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1619,13 +1580,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1633,27 +1594,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1661,55 +1622,55 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1717,13 +1678,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1766,7 +1727,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1788,7 +1749,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1813,41 +1774,41 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1855,41 +1816,41 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1897,41 +1858,41 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>109</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -1939,41 +1900,41 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1987,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2000,7 +1961,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2022,7 +1983,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2047,13 +2008,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2061,13 +2022,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2078,63 +2039,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8" s="4"/>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="1:4">
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2159,7 +2080,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2181,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2206,13 +2127,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -2220,13 +2141,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2286,7 +2207,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2308,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2333,13 +2254,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2347,13 +2268,13 @@
     </row>
     <row r="6" spans="1:4" ht="82.5">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -2361,13 +2282,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2375,13 +2296,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -2389,13 +2310,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -2403,10 +2324,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -2414,13 +2335,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -2428,13 +2349,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -2442,13 +2363,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2456,13 +2377,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -2470,13 +2391,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -2512,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2534,7 +2455,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2559,13 +2480,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -2618,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2629,10 +2550,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2697,13 +2618,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2722,13 +2643,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -2739,13 +2660,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2756,13 +2677,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2773,7 +2694,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2785,6 +2706,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2805,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2827,7 +2749,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2852,13 +2774,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2866,13 +2788,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2880,13 +2802,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2946,7 +2868,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2968,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2993,13 +2915,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -3007,30 +2929,30 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3063,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3077,13 +2999,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3130,13 +3052,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3144,26 +3066,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -3188,7 +3096,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3210,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3235,13 +3143,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -3252,21 +3160,21 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798209B5-94C8-49DB-90A3-DD8973AFB937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87849AD-CFC5-4E69-93BE-A2D08CD9566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="34185" windowHeight="15435" firstSheet="3" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -48,8 +48,140 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3C6863A-16AF-453B-BC11-739DBEC0B96B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{08D17A10-3A46-4341-83CA-EAB72631636B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CCDA89D9-0AB5-4A3B-A0EC-4BEC8E324F2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEAA569A-EBE3-4526-B0F3-5051F63E8A09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="124">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,9 +247,6 @@
     <t>표정</t>
   </si>
   <si>
-    <t>종류</t>
-  </si>
-  <si>
     <t>내용</t>
   </si>
   <si>
@@ -130,18 +259,9 @@
     <t>expression</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
     <t>contents</t>
   </si>
   <si>
-    <t>Main Char</t>
-  </si>
-  <si>
-    <t>NPC</t>
-  </si>
-  <si>
     <t>enum:TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +291,6 @@
   </si>
   <si>
     <t>101010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main Char</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +610,18 @@
   </si>
   <si>
     <t>dialogue_ep1/102010_old3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rau</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +654,13 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -585,6 +716,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -883,26 +1018,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -910,116 +1045,114 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1039,13 +1172,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1062,10 +1195,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1073,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1093,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1110,13 +1243,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1124,7 +1257,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1144,17 +1277,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1165,7 +1299,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1173,68 +1307,65 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,13 +1389,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1281,10 +1412,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1292,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1312,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1329,13 +1460,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1343,7 +1474,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1359,21 +1490,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD92C6D-F6F8-400A-B1E9-CB8344E588E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD92C6D-F6F8-400A-B1E9-CB8344E588E3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1384,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1392,151 +1525,140 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
+      <c r="D9" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1544,166 +1666,154 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
         <v>93</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1713,21 +1823,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EA8BF-B079-49A4-905D-516AA5402B91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EA8BF-B079-49A4-905D-516AA5402B91}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="76.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1738,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1746,203 +1858,180 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1951,17 +2040,19 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="76.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1972,7 +2063,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1980,82 +2071,79 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
+      <c r="D7" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,26 +2152,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B243888-DF02-4182-BB14-A7125335EA3F}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B243888-DF02-4182-BB14-A7125335EA3F}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2091,126 +2179,124 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2218,196 +2304,178 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="82.5">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="82.5">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2418,25 +2486,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3FC0B5-9567-4BC3-834B-3968CFA528F0}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2444,89 +2512,86 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2550,10 +2615,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2570,10 +2635,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2581,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2601,7 +2666,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2618,13 +2683,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2643,13 +2708,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -2660,13 +2725,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2677,13 +2742,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2694,7 +2759,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2712,25 +2777,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03D8D8-6123-49D7-9E87-BA039F1E0649}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2738,111 +2803,111 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2853,25 +2918,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1CAB32-3C6C-4484-8191-584CCB7324A0}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="47.75" customWidth="1"/>
+    <col min="2" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2879,102 +2944,96 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2988,7 +3047,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2999,13 +3058,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3027,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3041,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3052,13 +3111,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3066,7 +3125,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3086,17 +3145,19 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3107,7 +3168,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -3115,79 +3176,76 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87849AD-CFC5-4E69-93BE-A2D08CD9566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5374846-335C-4C30-AF4D-E512FAB53DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="34185" windowHeight="15435" firstSheet="3" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,9 @@
 6: Panic
 7: Suspicion
 8: Fear
-9: Curious</t>
+9: Curious
+10: Anim_One
+11: Anim_Two</t>
         </r>
       </text>
     </comment>
@@ -120,6 +122,163 @@
     <author>User</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{9A6D294D-638F-404F-BD1E-D6E1CE4B7C61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: None
+1: Animation
+2: Dialogue
+3: Temp(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4: TempEnd(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+5: TaskEnd(Task </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: New(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Task)
+7: TheEnd(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CCDA89D9-0AB5-4A3B-A0EC-4BEC8E324F2E}">
       <text>
         <r>
@@ -147,7 +306,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -181,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="122">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,21 +382,6 @@
   </si>
   <si>
     <t>increaseVar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>2,2,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -589,18 +733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogue_ep1/choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/choice3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue_ep1/102010_old1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,6 +754,26 @@
   </si>
   <si>
     <t>Rau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 번호 (동시 실행)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +813,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -716,10 +876,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1022,7 +1178,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1034,88 +1190,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1134,6 +1290,9 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
@@ -1161,7 +1320,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1172,13 +1331,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1195,10 +1354,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1206,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1226,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1243,13 +1402,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1257,7 +1416,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1288,63 +1447,63 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1352,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1378,7 +1537,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1389,13 +1548,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1412,10 +1571,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1423,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1443,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1460,13 +1619,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1474,7 +1633,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1494,7 +1653,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1506,49 +1665,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1556,43 +1715,43 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1600,35 +1759,35 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1655,149 +1814,149 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1839,193 +1998,193 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2199,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2052,77 +2211,77 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2130,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2168,74 +2327,74 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2293,182 +2452,182 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="82.5">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2501,60 +2660,60 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2601,11 +2760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2615,10 +2774,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2632,13 +2791,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2646,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2666,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2683,13 +2842,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2708,58 +2867,58 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2772,6 +2931,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2792,91 +2952,91 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2933,85 +3093,85 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3047,7 +3207,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3058,13 +3218,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3086,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3100,7 +3260,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3111,13 +3271,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3125,7 +3285,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -3157,63 +3317,63 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33">
@@ -3221,21 +3381,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5374846-335C-4C30-AF4D-E512FAB53DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99819300-57A4-41F0-9131-F350AC2AE360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -132,10 +132,10 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: None
-1: Animation
-2: Dialogue
-3: Temp(</t>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
         </r>
         <r>
           <rPr>
@@ -157,50 +157,8 @@
             <family val="2"/>
           </rPr>
           <t>)
-4: TempEnd(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">)
-5: TaskEnd(Task </t>
+4:TEMPEND
+5:TaskReset(Task</t>
         </r>
         <r>
           <rPr>
@@ -222,7 +180,7 @@
             <family val="2"/>
           </rPr>
           <t>)
-6: New(</t>
+6: NEW(</t>
         </r>
         <r>
           <rPr>
@@ -243,8 +201,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Task)
-7: TheEnd(</t>
+          <t>Task)
+7:THEEND(</t>
         </r>
         <r>
           <rPr>
@@ -265,7 +223,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>)</t>
+          <t>)
+8:TempDialogueEnd</t>
         </r>
       </text>
     </comment>
@@ -274,6 +233,122 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{99BCA413-E8F3-472C-A7FE-050DC35060EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -306,7 +381,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -340,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="125">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,9 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(카메라를 켜도 경찰에 신고한다는 경고를 한다.)</t>
-  </si>
-  <si>
     <t>(노인을 무시한다.)</t>
   </si>
   <si>
@@ -761,19 +833,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>실행 번호 (동시 실행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(카메라를 켜고 경찰에 신고한다는 경고를 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep1/choice3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,10 +1269,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1201,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1229,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1243,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -1268,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
@@ -1291,7 +1379,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1323,9 +1411,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1408,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1439,15 +1527,15 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1458,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1486,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1500,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1511,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1540,15 +1628,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
         <v>54</v>
@@ -1625,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1656,16 +1744,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="21.08203125" customWidth="1"/>
+    <col min="4" max="4" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1676,7 +1764,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1704,7 +1792,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1715,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="49.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1726,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1737,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1748,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1759,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1770,10 +1858,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1784,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1805,11 +1893,11 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1825,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1853,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1867,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1892,43 +1980,43 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1939,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1953,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1989,7 +2077,7 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
@@ -1998,7 +2086,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2009,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2037,7 +2125,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2045,24 +2133,24 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2073,32 +2161,32 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2109,32 +2197,32 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2145,32 +2233,32 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2181,10 +2269,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2199,19 +2287,19 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2222,7 +2310,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2250,7 +2338,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2264,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2278,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2289,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2315,13 +2403,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2338,7 +2426,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2366,7 +2454,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2391,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
@@ -2443,10 +2531,10 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2463,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2491,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2505,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="82.5">
+    <row r="6" spans="1:5" ht="85">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2530,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
@@ -2566,7 +2654,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -2602,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>40</v>
@@ -2651,10 +2739,10 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2671,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2699,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2764,12 +2852,13 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2791,7 +2880,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -2848,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2867,50 +2956,50 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
         <v>119</v>
@@ -2921,7 +3010,7 @@
         <v>57</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2943,10 +3032,10 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2963,7 +3052,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2991,7 +3080,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3005,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>44</v>
@@ -3019,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>49</v>
@@ -3033,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>50</v>
@@ -3084,16 +3173,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3104,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -3132,7 +3221,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3146,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>51</v>
@@ -3203,16 +3292,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3277,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3297,6 +3386,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3308,11 +3398,11 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3328,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -3356,7 +3446,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3370,18 +3460,18 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3392,10 +3482,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99819300-57A4-41F0-9131-F350AC2AE360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB738581-EAD3-4B0B-AF1F-587EEAE98A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="5" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="125">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,10 +482,6 @@
   </si>
   <si>
     <t>enum:TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -863,6 +859,9 @@
   <si>
     <t>dialogue_ep1/choice3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
   </si>
 </sst>
 </file>
@@ -1269,16 +1268,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1289,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1300,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1317,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1325,41 +1324,41 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1379,7 +1378,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1405,27 +1404,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3586121-688B-4363-B135-17C02A15AFAF}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1442,10 +1441,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1473,7 +1472,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1490,26 +1489,15 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -1527,15 +1515,15 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="42.58203125" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1546,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1557,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1574,7 +1562,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1582,16 +1570,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1599,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1622,27 +1610,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB3D-D3BE-4073-9DC2-BFF58C083A85}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1659,10 +1647,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1690,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1707,26 +1695,15 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -1744,16 +1721,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="21.08203125" customWidth="1"/>
-    <col min="4" max="4" width="42.58203125" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1764,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1775,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1792,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1803,43 +1780,43 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.5">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1847,35 +1824,35 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1889,20 +1866,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1913,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1924,7 +1901,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1941,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1949,102 +1926,102 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2077,7 +2054,7 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
@@ -2086,7 +2063,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2097,7 +2074,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2108,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2125,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2133,146 +2110,146 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2286,20 +2263,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.58203125" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2310,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2321,7 +2298,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2338,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2346,30 +2323,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2377,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2406,16 +2383,16 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2426,7 +2403,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2437,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2454,7 +2431,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2462,27 +2439,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2531,16 +2508,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2551,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2562,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2579,7 +2556,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2587,135 +2564,135 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="82.5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="85">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2739,16 +2716,16 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2759,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2770,7 +2747,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2787,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2795,13 +2772,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2852,21 +2829,21 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2880,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2914,7 +2891,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -2931,13 +2908,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2956,58 +2933,58 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
         <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -3032,16 +3009,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3052,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -3063,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3080,7 +3057,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3088,44 +3065,44 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3170,19 +3147,19 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B33" sqref="A32:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="4" max="4" width="63.625" customWidth="1"/>
     <col min="5" max="5" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3193,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -3204,7 +3181,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3221,7 +3198,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3229,38 +3206,38 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3293,27 +3270,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3349,7 +3326,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -3360,26 +3337,15 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
         <v>1</v>
       </c>
     </row>
@@ -3398,16 +3364,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" customWidth="1"/>
-    <col min="4" max="4" width="42.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3418,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -3429,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3446,7 +3412,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -3454,38 +3420,38 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB738581-EAD3-4B0B-AF1F-587EEAE98A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC5BEBB-9CAF-4364-8EE0-3A51D3013D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="3912" yWindow="408" windowWidth="17280" windowHeight="9420" firstSheet="6" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <sheet name="102010_choice" sheetId="17" r:id="rId5"/>
     <sheet name="102010" sheetId="16" r:id="rId6"/>
     <sheet name="102010_old" sheetId="28" r:id="rId7"/>
-    <sheet name="choice1" sheetId="18" r:id="rId8"/>
-    <sheet name="102010_old1" sheetId="22" r:id="rId9"/>
-    <sheet name="choice2" sheetId="19" r:id="rId10"/>
-    <sheet name="102010_old2" sheetId="23" r:id="rId11"/>
-    <sheet name="choice3" sheetId="21" r:id="rId12"/>
-    <sheet name="102010_old3" sheetId="24" r:id="rId13"/>
-    <sheet name="102010_cap" sheetId="20" r:id="rId14"/>
-    <sheet name="103010" sheetId="25" r:id="rId15"/>
-    <sheet name="104010" sheetId="27" r:id="rId16"/>
+    <sheet name="102010_old1" sheetId="22" r:id="rId8"/>
+    <sheet name="102010_old2" sheetId="23" r:id="rId9"/>
+    <sheet name="102010_old3" sheetId="24" r:id="rId10"/>
+    <sheet name="102010_cap" sheetId="20" r:id="rId11"/>
+    <sheet name="103010" sheetId="25" r:id="rId12"/>
+    <sheet name="104010" sheetId="27" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -235,122 +232,6 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{99BCA413-E8F3-472C-A7FE-050DC35060EC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>User</author>
   </authors>
   <commentList>
@@ -381,7 +262,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>User</author>
@@ -415,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="116">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,9 +316,6 @@
   <si>
     <t>파일 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행 번호 (동시 실행)</t>
   </si>
   <si>
     <t>order</t>
@@ -602,26 +480,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>choice 개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice의 경우 +값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라우대화1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>끝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102010_choice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,10 +503,6 @@
     <t>102010_cap</t>
   </si>
   <si>
-    <t>choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102010_old1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,10 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choice3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>102010_old</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -801,67 +659,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dialogue_ep1/102010_old3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 번호 (동시 실행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,m2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(카메라를 켜고 경찰에 신고한다는 경고를 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskContentType</t>
+  </si>
+  <si>
     <t>dialogue_ep1/102010_old1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dialogue_ep1/102010_old2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/102010_old3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이터 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행 번호 (동시 실행)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,m2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(카메라를 켜고 경찰에 신고한다는 경고를 한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep1/choice3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskContentType</t>
   </si>
 </sst>
 </file>
@@ -1268,97 +1112,97 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1378,7 +1222,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1403,317 +1247,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3586121-688B-4363-B135-17C02A15AFAF}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1AEA6-CA32-4FB8-93D2-80C59E6BAF42}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF17BB3D-D3BE-4073-9DC2-BFF58C083A85}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A6:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD92C6D-F6F8-400A-B1E9-CB8344E588E3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1721,58 +1254,58 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.09765625" customWidth="1"/>
+    <col min="4" max="4" width="42.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1780,43 +1313,43 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="49.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="52.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1824,35 +1357,35 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -1870,158 +1403,158 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="63.59765625" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2046,7 +1579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EA8BF-B079-49A4-905D-516AA5402B91}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -2054,7 +1587,7 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
@@ -2063,193 +1596,193 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -2267,86 +1800,86 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2354,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2383,83 +1916,83 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2508,191 +2041,191 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="87">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="82.5">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2716,69 +2249,69 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="27.3984375" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2826,24 +2359,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2857,13 +2390,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2871,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2888,33 +2421,33 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2933,64 +2466,53 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3009,100 +2531,100 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="63.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3150,94 +2672,94 @@
       <selection activeCell="B33" sqref="A32:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="63.59765625" customWidth="1"/>
+    <col min="5" max="5" width="47.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3269,94 +2791,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56187D0C-39CF-4294-9323-5B8398006A1F}">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -3364,95 +2798,196 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="42.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34.799999999999997">
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1AEA6-CA32-4FB8-93D2-80C59E6BAF42}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="42.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="4"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UISU\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC5BEBB-9CAF-4364-8EE0-3A51D3013D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094780C-7FB4-41DC-A560-03897507E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="408" windowWidth="17280" windowHeight="9420" firstSheet="6" activeTab="10" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="4" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -359,10 +359,6 @@
     <t>contents</t>
   </si>
   <si>
-    <t>enum:TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,6 +702,10 @@
   </si>
   <si>
     <t>dialogue_ep1/102010_old2</t>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1112,16 +1112,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1143,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1168,41 +1168,41 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1222,7 +1222,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1254,16 +1254,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" customWidth="1"/>
-    <col min="4" max="4" width="42.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.08203125" customWidth="1"/>
+    <col min="4" max="4" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1313,43 +1313,43 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="52.2">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1357,35 +1357,35 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1399,20 +1399,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD3D267-149A-4874-91EC-FEEC24D1F08D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.59765625" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1423,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1434,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1459,102 +1459,102 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1587,7 +1587,7 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
@@ -1596,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1607,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1618,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1643,146 +1643,146 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1796,20 +1796,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" customWidth="1"/>
     <col min="4" max="4" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1831,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1856,30 +1856,30 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1916,16 +1916,16 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1936,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1947,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1972,27 +1972,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2041,16 +2041,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2061,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2072,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2097,135 +2097,135 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="87">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2249,16 +2249,16 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.4140625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2280,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2362,21 +2362,22 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.9140625" customWidth="1"/>
+    <col min="3" max="3" width="34.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2390,13 +2391,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2404,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2424,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2441,13 +2442,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2466,53 +2467,53 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
         <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2531,16 +2532,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2551,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2562,7 +2563,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2579,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2587,44 +2588,44 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2672,16 +2673,16 @@
       <selection activeCell="B33" sqref="A32:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="63.59765625" customWidth="1"/>
-    <col min="5" max="5" width="47.69921875" customWidth="1"/>
+    <col min="4" max="4" width="63.58203125" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2692,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2703,7 +2704,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2720,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2728,38 +2729,38 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2798,16 +2799,16 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="42.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2818,7 +2819,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2829,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2846,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2854,38 +2855,38 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2911,15 +2912,15 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="42.59765625" customWidth="1"/>
+    <col min="4" max="4" width="42.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2930,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -2941,7 +2942,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2958,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2966,16 +2967,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2983,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094780C-7FB4-41DC-A560-03897507E4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620BEC19-7567-4EE9-A61D-F201ECA9368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="4" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,10 +668,6 @@
   </si>
   <si>
     <t>Rau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1108,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1221,9 +1217,6 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
@@ -1796,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1913,7 +1906,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A7" sqref="A7:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2362,7 +2355,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2391,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -2405,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -2425,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2467,19 +2460,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2490,13 +2483,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2510,10 +2503,10 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" t="s">
         <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620BEC19-7567-4EE9-A61D-F201ECA9368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ACAC13-43F3-4332-8BDB-0067231AF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="7530" yWindow="0" windowWidth="18070" windowHeight="13800" firstSheet="7" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="119">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,6 +701,21 @@
   </si>
   <si>
     <t>enum:TaskContentType:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Access_Old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Citizen_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Hawker</t>
+  </si>
+  <si>
+    <t>NPC_Hawker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1181,7 +1196,10 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
@@ -1244,7 +1262,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1316,6 +1334,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
@@ -1327,6 +1348,9 @@
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>68</v>
       </c>
@@ -1348,6 +1372,9 @@
     <row r="9" spans="1:4">
       <c r="B9">
         <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>70</v>
@@ -1393,7 +1420,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1577,7 +1604,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1641,6 +1668,9 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
@@ -1652,6 +1682,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>85</v>
       </c>
@@ -1677,6 +1710,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>87</v>
       </c>
@@ -1688,6 +1724,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>88</v>
       </c>
@@ -1713,6 +1752,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="s">
         <v>90</v>
       </c>
@@ -1724,6 +1766,9 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="s">
         <v>91</v>
       </c>
@@ -1749,6 +1794,9 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
       <c r="D14" t="s">
         <v>93</v>
       </c>
@@ -1759,6 +1807,9 @@
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
       </c>
       <c r="D15" t="s">
         <v>94</v>
@@ -1789,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1906,7 +1957,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1968,7 +2019,10 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -2031,7 +2085,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2109,6 +2163,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2134,6 +2191,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
@@ -2145,6 +2205,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2170,6 +2233,9 @@
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2181,6 +2247,9 @@
       <c r="B12">
         <v>0</v>
       </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2190,7 +2259,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>105</v>
@@ -2206,6 +2275,9 @@
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2216,6 +2288,9 @@
       </c>
       <c r="B15">
         <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
@@ -2239,7 +2314,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2302,6 +2377,9 @@
       </c>
       <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -2522,7 +2600,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2663,7 +2741,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="A32:B33"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2741,6 +2819,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
@@ -2751,6 +2832,9 @@
       </c>
       <c r="B7">
         <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>54</v>
@@ -2789,7 +2873,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2864,6 +2948,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>60</v>
       </c>
@@ -2902,7 +2989,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ACAC13-43F3-4332-8BDB-0067231AF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07171764-FA5B-4435-8A06-389E9445AA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="0" windowWidth="18070" windowHeight="13800" firstSheet="7" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="4" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="121">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,13 @@
   </si>
   <si>
     <t>NPC_Hawker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Police</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1127,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1262,7 +1269,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1498,6 +1505,9 @@
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>74</v>
       </c>
@@ -1523,6 +1533,9 @@
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>76</v>
       </c>
@@ -1534,6 +1547,9 @@
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>77</v>
       </c>
@@ -1544,6 +1560,9 @@
       </c>
       <c r="B10">
         <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>79</v>
@@ -1604,7 +1623,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1841,7 +1860,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1957,7 +1976,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07171764-FA5B-4435-8A06-389E9445AA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D88FF-CF49-4FF5-8F1C-BC3B7ABEC805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="4" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -129,99 +129,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12
+Clear = 13</t>
         </r>
       </text>
     </comment>
@@ -733,7 +654,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,14 +683,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1860,7 +1773,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D88FF-CF49-4FF5-8F1C-BC3B7ABEC805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985A5E55-0C56-4C6D-9E5F-09FC05C85AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="4" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="5" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Excel2Json/bin/ep1/ep01.xlsx
+++ b/Excel2Json/bin/ep1/ep01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985A5E55-0C56-4C6D-9E5F-09FC05C85AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8EEF3D-9A6E-4F78-8D91-1903F9F25841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="5" activeTab="12" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="101010" sheetId="2" r:id="rId1"/>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E3C8-8223-458D-8708-16BBD05BEFEA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10619FD2-BE35-41FF-80FA-6BD8A3F2D643}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
